--- a/weightage_wise_Nifty_50_Stocks.xlsx
+++ b/weightage_wise_Nifty_50_Stocks.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ashu\Finance\algo_trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA66D0B-D058-49FD-A302-8A8C3B5B699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A179A-4906-432E-A133-2E551EE5C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{33A5F008-8312-4EE7-A9EC-DDA3F8E2BE4F}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33A5F008-8312-4EE7-A9EC-DDA3F8E2BE4F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="August 2023" sheetId="1" r:id="rId1"/>
+    <sheet name="February 2024" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="121">
   <si>
     <t>COMPANY NAME</t>
   </si>
@@ -379,6 +380,15 @@
   </si>
   <si>
     <t>LTIM</t>
+  </si>
+  <si>
+    <t>Mahindra &amp; Mahindra</t>
+  </si>
+  <si>
+    <t>Adani Ports and Special Economic</t>
+  </si>
+  <si>
+    <t>Shriram Finance</t>
   </si>
 </sst>
 </file>
@@ -778,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6529EC9-A97D-4F20-93E2-01516CDF0C8E}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,4 +1518,586 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930E0E04-9B36-47AE-A864-2BEBDF0A41D2}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>